--- a/data-raw/aes_colsFloodRiver_df.xlsx
+++ b/data-raw/aes_colsFloodRiver_df.xlsx
@@ -35,19 +35,19 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>#3487A6FF</t>
-  </si>
-  <si>
     <t>#gray55</t>
   </si>
   <si>
-    <t>#3D5296FF</t>
-  </si>
-  <si>
     <t>1 in 100-year flood</t>
   </si>
   <si>
     <t>1 in 200-year flood</t>
+  </si>
+  <si>
+    <t>#0072B2</t>
+  </si>
+  <si>
+    <t>#56B4E9</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,23 +386,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/aes_colsFloodRiver_df.xlsx
+++ b/data-raw/aes_colsFloodRiver_df.xlsx
@@ -35,9 +35,6 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>#gray55</t>
-  </si>
-  <si>
     <t>1 in 100-year flood</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>#56B4E9</t>
+  </si>
+  <si>
+    <t>#85929E</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -386,23 +386,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
